--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb2-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb2-Acvr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Tgfb2</t>
+  </si>
+  <si>
+    <t>Acvr1</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Tgfb2</t>
-  </si>
-  <si>
-    <t>Acvr1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.3842205</v>
+        <v>2.847385</v>
       </c>
       <c r="H2">
-        <v>4.768441</v>
+        <v>5.69477</v>
       </c>
       <c r="I2">
-        <v>0.0684902599354226</v>
+        <v>0.1367698184108593</v>
       </c>
       <c r="J2">
-        <v>0.05735520746201143</v>
+        <v>0.1067339650714877</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.2840475</v>
+        <v>8.424749</v>
       </c>
       <c r="N2">
-        <v>16.568095</v>
+        <v>16.849498</v>
       </c>
       <c r="O2">
-        <v>0.162064909128062</v>
+        <v>0.1980372819757593</v>
       </c>
       <c r="P2">
-        <v>0.1267883207199013</v>
+        <v>0.1585662899160533</v>
       </c>
       <c r="Q2">
-        <v>19.75099587247375</v>
+        <v>23.988503931365</v>
       </c>
       <c r="R2">
-        <v>79.00398348989501</v>
+        <v>95.95401572546001</v>
       </c>
       <c r="S2">
-        <v>0.01109986775259161</v>
+        <v>0.02708552309440474</v>
       </c>
       <c r="T2">
-        <v>0.007271970438649981</v>
+        <v>0.01692440884941542</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.3842205</v>
+        <v>2.847385</v>
       </c>
       <c r="H3">
-        <v>4.768441</v>
+        <v>5.69477</v>
       </c>
       <c r="I3">
-        <v>0.0684902599354226</v>
+        <v>0.1367698184108593</v>
       </c>
       <c r="J3">
-        <v>0.05735520746201143</v>
+        <v>0.1067339650714877</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>31.672871</v>
       </c>
       <c r="O3">
-        <v>0.2065440016062932</v>
+        <v>0.2481739331426511</v>
       </c>
       <c r="P3">
-        <v>0.2423785067907964</v>
+        <v>0.2980652388254983</v>
       </c>
       <c r="Q3">
-        <v>25.17170277735183</v>
+        <v>30.06161926411167</v>
       </c>
       <c r="R3">
-        <v>151.030216664111</v>
+        <v>180.36971558467</v>
       </c>
       <c r="S3">
-        <v>0.01414625235811737</v>
+        <v>0.03394270377022913</v>
       </c>
       <c r="T3">
-        <v>0.01390166954131868</v>
+        <v>0.03181368478982537</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.3842205</v>
+        <v>2.847385</v>
       </c>
       <c r="H4">
-        <v>4.768441</v>
+        <v>5.69477</v>
       </c>
       <c r="I4">
-        <v>0.0684902599354226</v>
+        <v>0.1367698184108593</v>
       </c>
       <c r="J4">
-        <v>0.05735520746201143</v>
+        <v>0.1067339650714877</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.931556333333333</v>
+        <v>5.743874333333333</v>
       </c>
       <c r="N4">
-        <v>17.794669</v>
+        <v>17.231623</v>
       </c>
       <c r="O4">
-        <v>0.1160419635630586</v>
+        <v>0.1350190089916815</v>
       </c>
       <c r="P4">
-        <v>0.13617475034254</v>
+        <v>0.1621623699615343</v>
       </c>
       <c r="Q4">
-        <v>14.14213820683817</v>
+        <v>16.35502161861833</v>
       </c>
       <c r="R4">
-        <v>84.852829241029</v>
+        <v>98.13012971171</v>
       </c>
       <c r="S4">
-        <v>0.007947744247850724</v>
+        <v>0.01846652534180646</v>
       </c>
       <c r="T4">
-        <v>0.007810331056983993</v>
+        <v>0.01730823273138406</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.3842205</v>
+        <v>2.847385</v>
       </c>
       <c r="H5">
-        <v>4.768441</v>
+        <v>5.69477</v>
       </c>
       <c r="I5">
-        <v>0.0684902599354226</v>
+        <v>0.1367698184108593</v>
       </c>
       <c r="J5">
-        <v>0.05735520746201143</v>
+        <v>0.1067339650714877</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.3875515</v>
+        <v>12.9373935</v>
       </c>
       <c r="N5">
-        <v>28.775103</v>
+        <v>25.874787</v>
       </c>
       <c r="O5">
-        <v>0.2814707697442357</v>
+        <v>0.3041142524947457</v>
       </c>
       <c r="P5">
-        <v>0.2202031668645185</v>
+        <v>0.2435009622813764</v>
       </c>
       <c r="Q5">
-        <v>34.30309523110575</v>
+        <v>36.8377401909975</v>
       </c>
       <c r="R5">
-        <v>137.212380924423</v>
+        <v>147.35096076399</v>
       </c>
       <c r="S5">
-        <v>0.01927800618400619</v>
+        <v>0.04159365108986057</v>
       </c>
       <c r="T5">
-        <v>0.01262979831930638</v>
+        <v>0.02598982320301406</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.3842205</v>
+        <v>2.847385</v>
       </c>
       <c r="H6">
-        <v>4.768441</v>
+        <v>5.69477</v>
       </c>
       <c r="I6">
-        <v>0.0684902599354226</v>
+        <v>0.1367698184108593</v>
       </c>
       <c r="J6">
-        <v>0.05735520746201143</v>
+        <v>0.1067339650714877</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.493894666666667</v>
+        <v>0.882742</v>
       </c>
       <c r="N6">
-        <v>19.481684</v>
+        <v>2.648226</v>
       </c>
       <c r="O6">
-        <v>0.1270432658722128</v>
+        <v>0.02075027117909931</v>
       </c>
       <c r="P6">
-        <v>0.1490847317785038</v>
+        <v>0.02492177343676531</v>
       </c>
       <c r="Q6">
-        <v>15.48287678910733</v>
+        <v>2.51350632967</v>
       </c>
       <c r="R6">
-        <v>92.89726073464401</v>
+        <v>15.08103797802</v>
       </c>
       <c r="S6">
-        <v>0.008701226302632856</v>
+        <v>0.0028380108211415</v>
       </c>
       <c r="T6">
-        <v>0.008550785720574414</v>
+        <v>0.002659999695519237</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.3842205</v>
+        <v>2.847385</v>
       </c>
       <c r="H7">
-        <v>4.768441</v>
+        <v>5.69477</v>
       </c>
       <c r="I7">
-        <v>0.0684902599354226</v>
+        <v>0.1367698184108593</v>
       </c>
       <c r="J7">
-        <v>0.05735520746201143</v>
+        <v>0.1067339650714877</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.460941333333333</v>
+        <v>3.994844666666667</v>
       </c>
       <c r="N7">
-        <v>16.382824</v>
+        <v>11.984534</v>
       </c>
       <c r="O7">
-        <v>0.1068350900861377</v>
+        <v>0.09390525221606305</v>
       </c>
       <c r="P7">
-        <v>0.1253705235037399</v>
+        <v>0.1127833655787726</v>
       </c>
       <c r="Q7">
-        <v>13.02008827623067</v>
+        <v>11.37486078119667</v>
       </c>
       <c r="R7">
-        <v>78.120529657384</v>
+        <v>68.24916468718</v>
       </c>
       <c r="S7">
-        <v>0.007317163090223864</v>
+        <v>0.01284340429341688</v>
       </c>
       <c r="T7">
-        <v>0.007190652385177984</v>
+        <v>0.01203781580232954</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>35.151552</v>
       </c>
       <c r="I8">
-        <v>0.3365934391853331</v>
+        <v>0.5628171560806234</v>
       </c>
       <c r="J8">
-        <v>0.4228058096077277</v>
+        <v>0.6588263482768545</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.2840475</v>
+        <v>8.424749</v>
       </c>
       <c r="N8">
-        <v>16.568095</v>
+        <v>16.849498</v>
       </c>
       <c r="O8">
-        <v>0.162064909128062</v>
+        <v>0.1980372819757593</v>
       </c>
       <c r="P8">
-        <v>0.1267883207199013</v>
+        <v>0.1585662899160533</v>
       </c>
       <c r="Q8">
-        <v>97.06570882223998</v>
+        <v>98.71433418681602</v>
       </c>
       <c r="R8">
-        <v>582.3942529334399</v>
+        <v>592.2860051208961</v>
       </c>
       <c r="S8">
-        <v>0.05454998513467287</v>
+        <v>0.1114587798395334</v>
       </c>
       <c r="T8">
-        <v>0.0536068385907821</v>
+        <v>0.1044676497452024</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>35.151552</v>
       </c>
       <c r="I9">
-        <v>0.3365934391853331</v>
+        <v>0.5628171560806234</v>
       </c>
       <c r="J9">
-        <v>0.4228058096077277</v>
+        <v>0.6588263482768545</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>31.672871</v>
       </c>
       <c r="O9">
-        <v>0.2065440016062932</v>
+        <v>0.2481739331426511</v>
       </c>
       <c r="P9">
-        <v>0.2423785067907964</v>
+        <v>0.2980652388254983</v>
       </c>
       <c r="Q9">
         <v>123.705619105088</v>
@@ -1013,10 +1013,10 @@
         <v>1113.350571945792</v>
       </c>
       <c r="S9">
-        <v>0.06952135584376322</v>
+        <v>0.1396765472646897</v>
       </c>
       <c r="T9">
-        <v>0.1024790407951948</v>
+        <v>0.1963732328436716</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>35.151552</v>
       </c>
       <c r="I10">
-        <v>0.3365934391853331</v>
+        <v>0.5628171560806234</v>
       </c>
       <c r="J10">
-        <v>0.4228058096077277</v>
+        <v>0.6588263482768545</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.931556333333333</v>
+        <v>5.743874333333333</v>
       </c>
       <c r="N10">
-        <v>17.794669</v>
+        <v>17.231623</v>
       </c>
       <c r="O10">
-        <v>0.1160419635630586</v>
+        <v>0.1350190089916815</v>
       </c>
       <c r="P10">
-        <v>0.13617475034254</v>
+        <v>0.1621623699615343</v>
       </c>
       <c r="Q10">
-        <v>69.50113696403199</v>
+        <v>67.30203243654401</v>
       </c>
       <c r="R10">
-        <v>625.5102326762878</v>
+        <v>605.718291928896</v>
       </c>
       <c r="S10">
-        <v>0.03905896360550902</v>
+        <v>0.07599101465752232</v>
       </c>
       <c r="T10">
-        <v>0.05757547556670781</v>
+        <v>0.1068368420296779</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>35.151552</v>
       </c>
       <c r="I11">
-        <v>0.3365934391853331</v>
+        <v>0.5628171560806234</v>
       </c>
       <c r="J11">
-        <v>0.4228058096077277</v>
+        <v>0.6588263482768545</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.3875515</v>
+        <v>12.9373935</v>
       </c>
       <c r="N11">
-        <v>28.775103</v>
+        <v>25.874787</v>
       </c>
       <c r="O11">
-        <v>0.2814707697442357</v>
+        <v>0.3041142524947457</v>
       </c>
       <c r="P11">
-        <v>0.2202031668645185</v>
+        <v>0.2435009622813764</v>
       </c>
       <c r="Q11">
-        <v>168.581588234976</v>
+        <v>151.589820119904</v>
       </c>
       <c r="R11">
-        <v>1011.489529409856</v>
+        <v>909.538920719424</v>
       </c>
       <c r="S11">
-        <v>0.09474121441835531</v>
+        <v>0.1711607187126774</v>
       </c>
       <c r="T11">
-        <v>0.09310317824433828</v>
+        <v>0.1604248497817393</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>35.151552</v>
       </c>
       <c r="I12">
-        <v>0.3365934391853331</v>
+        <v>0.5628171560806234</v>
       </c>
       <c r="J12">
-        <v>0.4228058096077277</v>
+        <v>0.6588263482768545</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.493894666666667</v>
+        <v>0.882742</v>
       </c>
       <c r="N12">
-        <v>19.481684</v>
+        <v>2.648226</v>
       </c>
       <c r="O12">
-        <v>0.1270432658722128</v>
+        <v>0.02075027117909931</v>
       </c>
       <c r="P12">
-        <v>0.1490847317785038</v>
+        <v>0.02492177343676531</v>
       </c>
       <c r="Q12">
-        <v>76.09015868595199</v>
+        <v>10.343250438528</v>
       </c>
       <c r="R12">
-        <v>684.8114281735679</v>
+        <v>93.08925394675201</v>
       </c>
       <c r="S12">
-        <v>0.04276192978526475</v>
+        <v>0.0116786086129224</v>
       </c>
       <c r="T12">
-        <v>0.06303389071976122</v>
+        <v>0.0164191209859272</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1231,10 +1231,10 @@
         <v>35.151552</v>
       </c>
       <c r="I13">
-        <v>0.3365934391853331</v>
+        <v>0.5628171560806234</v>
       </c>
       <c r="J13">
-        <v>0.4228058096077277</v>
+        <v>0.6588263482768545</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.460941333333333</v>
+        <v>3.994844666666667</v>
       </c>
       <c r="N13">
-        <v>16.382824</v>
+        <v>11.984534</v>
       </c>
       <c r="O13">
-        <v>0.1068350900861377</v>
+        <v>0.09390525221606305</v>
       </c>
       <c r="P13">
-        <v>0.1253705235037399</v>
+        <v>0.1127833655787726</v>
       </c>
       <c r="Q13">
-        <v>63.98685441587199</v>
+        <v>46.80833001075201</v>
       </c>
       <c r="R13">
-        <v>575.8816897428479</v>
+        <v>421.274970096768</v>
       </c>
       <c r="S13">
-        <v>0.03595999039776799</v>
+        <v>0.05285148699327827</v>
       </c>
       <c r="T13">
-        <v>0.05300738569094341</v>
+        <v>0.07430465289063623</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.910282</v>
+        <v>6.254242</v>
       </c>
       <c r="H14">
-        <v>37.820564</v>
+        <v>12.508484</v>
       </c>
       <c r="I14">
-        <v>0.5432258172564757</v>
+        <v>0.3004130255085172</v>
       </c>
       <c r="J14">
-        <v>0.4549089093375132</v>
+        <v>0.234439686651658</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.2840475</v>
+        <v>8.424749</v>
       </c>
       <c r="N14">
-        <v>16.568095</v>
+        <v>16.849498</v>
       </c>
       <c r="O14">
-        <v>0.162064909128062</v>
+        <v>0.1980372819757593</v>
       </c>
       <c r="P14">
-        <v>0.1267883207199013</v>
+        <v>0.1585662899160533</v>
       </c>
       <c r="Q14">
-        <v>156.653674326395</v>
+        <v>52.690419035258</v>
       </c>
       <c r="R14">
-        <v>626.61469730558</v>
+        <v>210.761676141032</v>
       </c>
       <c r="S14">
-        <v>0.08803784270968792</v>
+        <v>0.05949297904182121</v>
       </c>
       <c r="T14">
-        <v>0.05767713669542512</v>
+        <v>0.03717423132143548</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.910282</v>
+        <v>6.254242</v>
       </c>
       <c r="H15">
-        <v>37.820564</v>
+        <v>12.508484</v>
       </c>
       <c r="I15">
-        <v>0.5432258172564757</v>
+        <v>0.3004130255085172</v>
       </c>
       <c r="J15">
-        <v>0.4549089093375132</v>
+        <v>0.234439686651658</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>31.672871</v>
       </c>
       <c r="O15">
-        <v>0.2065440016062932</v>
+        <v>0.2481739331426511</v>
       </c>
       <c r="P15">
-        <v>0.2423785067907964</v>
+        <v>0.2980652388254983</v>
       </c>
       <c r="Q15">
-        <v>199.6476407865406</v>
+        <v>66.02993335626066</v>
       </c>
       <c r="R15">
-        <v>1197.885844719244</v>
+        <v>396.179600137564</v>
       </c>
       <c r="S15">
-        <v>0.1122000340720015</v>
+        <v>0.07455468210773231</v>
       </c>
       <c r="T15">
-        <v>0.1102601421710563</v>
+        <v>0.06987832119200142</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.910282</v>
+        <v>6.254242</v>
       </c>
       <c r="H16">
-        <v>37.820564</v>
+        <v>12.508484</v>
       </c>
       <c r="I16">
-        <v>0.5432258172564757</v>
+        <v>0.3004130255085172</v>
       </c>
       <c r="J16">
-        <v>0.4549089093375132</v>
+        <v>0.234439686651658</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.931556333333333</v>
+        <v>5.743874333333333</v>
       </c>
       <c r="N16">
-        <v>17.794669</v>
+        <v>17.231623</v>
       </c>
       <c r="O16">
-        <v>0.1160419635630586</v>
+        <v>0.1350190089916815</v>
       </c>
       <c r="P16">
-        <v>0.13617475034254</v>
+        <v>0.1621623699615343</v>
       </c>
       <c r="Q16">
-        <v>112.1674029622193</v>
+        <v>35.92358009825533</v>
       </c>
       <c r="R16">
-        <v>673.0044177733159</v>
+        <v>215.541480589532</v>
       </c>
       <c r="S16">
-        <v>0.06303699049258869</v>
+        <v>0.04056146899235274</v>
       </c>
       <c r="T16">
-        <v>0.06194710715763302</v>
+        <v>0.03801729520047233</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.910282</v>
+        <v>6.254242</v>
       </c>
       <c r="H17">
-        <v>37.820564</v>
+        <v>12.508484</v>
       </c>
       <c r="I17">
-        <v>0.5432258172564757</v>
+        <v>0.3004130255085172</v>
       </c>
       <c r="J17">
-        <v>0.4549089093375132</v>
+        <v>0.234439686651658</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.3875515</v>
+        <v>12.9373935</v>
       </c>
       <c r="N17">
-        <v>28.775103</v>
+        <v>25.874787</v>
       </c>
       <c r="O17">
-        <v>0.2814707697442357</v>
+        <v>0.3041142524947457</v>
       </c>
       <c r="P17">
-        <v>0.2202031668645185</v>
+        <v>0.2435009622813764</v>
       </c>
       <c r="Q17">
-        <v>272.072656154523</v>
+        <v>80.91358979822699</v>
       </c>
       <c r="R17">
-        <v>1088.290624618092</v>
+        <v>323.654359192908</v>
       </c>
       <c r="S17">
-        <v>0.1529021889281217</v>
+        <v>0.09135988269220768</v>
       </c>
       <c r="T17">
-        <v>0.1001723824710045</v>
+        <v>0.05708628929662306</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>18.910282</v>
+        <v>6.254242</v>
       </c>
       <c r="H18">
-        <v>37.820564</v>
+        <v>12.508484</v>
       </c>
       <c r="I18">
-        <v>0.5432258172564757</v>
+        <v>0.3004130255085172</v>
       </c>
       <c r="J18">
-        <v>0.4549089093375132</v>
+        <v>0.234439686651658</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.493894666666667</v>
+        <v>0.882742</v>
       </c>
       <c r="N18">
-        <v>19.481684</v>
+        <v>2.648226</v>
       </c>
       <c r="O18">
-        <v>0.1270432658722128</v>
+        <v>0.02075027117909931</v>
       </c>
       <c r="P18">
-        <v>0.1490847317785038</v>
+        <v>0.02492177343676531</v>
       </c>
       <c r="Q18">
-        <v>122.8013794249627</v>
+        <v>5.520882091564</v>
       </c>
       <c r="R18">
-        <v>736.808276549776</v>
+        <v>33.125292549384</v>
       </c>
       <c r="S18">
-        <v>0.0690131819303645</v>
+        <v>0.006233651745035412</v>
       </c>
       <c r="T18">
-        <v>0.06781997273223485</v>
+        <v>0.005842652755318871</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>18.910282</v>
+        <v>6.254242</v>
       </c>
       <c r="H19">
-        <v>37.820564</v>
+        <v>12.508484</v>
       </c>
       <c r="I19">
-        <v>0.5432258172564757</v>
+        <v>0.3004130255085172</v>
       </c>
       <c r="J19">
-        <v>0.4549089093375132</v>
+        <v>0.234439686651658</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.460941333333333</v>
+        <v>3.994844666666667</v>
       </c>
       <c r="N19">
-        <v>16.382824</v>
+        <v>11.984534</v>
       </c>
       <c r="O19">
-        <v>0.1068350900861377</v>
+        <v>0.09390525221606305</v>
       </c>
       <c r="P19">
-        <v>0.1253705235037399</v>
+        <v>0.1127833655787726</v>
       </c>
       <c r="Q19">
-        <v>103.2679405987893</v>
+        <v>24.98472529774267</v>
       </c>
       <c r="R19">
-        <v>619.6076435927359</v>
+        <v>149.908351786456</v>
       </c>
       <c r="S19">
-        <v>0.05803557912371138</v>
+        <v>0.02821036092936789</v>
       </c>
       <c r="T19">
-        <v>0.0570321681101594</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1.799402</v>
-      </c>
-      <c r="H20">
-        <v>5.398205999999999</v>
-      </c>
-      <c r="I20">
-        <v>0.05169048362276864</v>
-      </c>
-      <c r="J20">
-        <v>0.06493007359274758</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>8.2840475</v>
-      </c>
-      <c r="N20">
-        <v>16.568095</v>
-      </c>
-      <c r="O20">
-        <v>0.162064909128062</v>
-      </c>
-      <c r="P20">
-        <v>0.1267883207199013</v>
-      </c>
-      <c r="Q20">
-        <v>14.906331639595</v>
-      </c>
-      <c r="R20">
-        <v>89.43798983756999</v>
-      </c>
-      <c r="S20">
-        <v>0.008377213531109574</v>
-      </c>
-      <c r="T20">
-        <v>0.008232374995044074</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.799402</v>
-      </c>
-      <c r="H21">
-        <v>5.398205999999999</v>
-      </c>
-      <c r="I21">
-        <v>0.05169048362276864</v>
-      </c>
-      <c r="J21">
-        <v>0.06493007359274758</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>10.55762366666667</v>
-      </c>
-      <c r="N21">
-        <v>31.672871</v>
-      </c>
-      <c r="O21">
-        <v>0.2065440016062932</v>
-      </c>
-      <c r="P21">
-        <v>0.2423785067907964</v>
-      </c>
-      <c r="Q21">
-        <v>18.99740914104733</v>
-      </c>
-      <c r="R21">
-        <v>170.976682269426</v>
-      </c>
-      <c r="S21">
-        <v>0.0106763593324112</v>
-      </c>
-      <c r="T21">
-        <v>0.01573765428322668</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1.799402</v>
-      </c>
-      <c r="H22">
-        <v>5.398205999999999</v>
-      </c>
-      <c r="I22">
-        <v>0.05169048362276864</v>
-      </c>
-      <c r="J22">
-        <v>0.06493007359274758</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>5.931556333333333</v>
-      </c>
-      <c r="N22">
-        <v>17.794669</v>
-      </c>
-      <c r="O22">
-        <v>0.1160419635630586</v>
-      </c>
-      <c r="P22">
-        <v>0.13617475034254</v>
-      </c>
-      <c r="Q22">
-        <v>10.67325432931266</v>
-      </c>
-      <c r="R22">
-        <v>96.05928896381398</v>
-      </c>
-      <c r="S22">
-        <v>0.005998265217110198</v>
-      </c>
-      <c r="T22">
-        <v>0.008841836561215149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1.799402</v>
-      </c>
-      <c r="H23">
-        <v>5.398205999999999</v>
-      </c>
-      <c r="I23">
-        <v>0.05169048362276864</v>
-      </c>
-      <c r="J23">
-        <v>0.06493007359274758</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>14.3875515</v>
-      </c>
-      <c r="N23">
-        <v>28.775103</v>
-      </c>
-      <c r="O23">
-        <v>0.2814707697442357</v>
-      </c>
-      <c r="P23">
-        <v>0.2202031668645185</v>
-      </c>
-      <c r="Q23">
-        <v>25.888988944203</v>
-      </c>
-      <c r="R23">
-        <v>155.333933665218</v>
-      </c>
-      <c r="S23">
-        <v>0.0145493602137525</v>
-      </c>
-      <c r="T23">
-        <v>0.01429780782986926</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1.799402</v>
-      </c>
-      <c r="H24">
-        <v>5.398205999999999</v>
-      </c>
-      <c r="I24">
-        <v>0.05169048362276864</v>
-      </c>
-      <c r="J24">
-        <v>0.06493007359274758</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>6.493894666666667</v>
-      </c>
-      <c r="N24">
-        <v>19.481684</v>
-      </c>
-      <c r="O24">
-        <v>0.1270432658722128</v>
-      </c>
-      <c r="P24">
-        <v>0.1490847317785038</v>
-      </c>
-      <c r="Q24">
-        <v>11.68512705098933</v>
-      </c>
-      <c r="R24">
-        <v>105.166143458904</v>
-      </c>
-      <c r="S24">
-        <v>0.006566927853950657</v>
-      </c>
-      <c r="T24">
-        <v>0.009680082605933284</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1.799402</v>
-      </c>
-      <c r="H25">
-        <v>5.398205999999999</v>
-      </c>
-      <c r="I25">
-        <v>0.05169048362276864</v>
-      </c>
-      <c r="J25">
-        <v>0.06493007359274758</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>5.460941333333333</v>
-      </c>
-      <c r="N25">
-        <v>16.382824</v>
-      </c>
-      <c r="O25">
-        <v>0.1068350900861377</v>
-      </c>
-      <c r="P25">
-        <v>0.1253705235037399</v>
-      </c>
-      <c r="Q25">
-        <v>9.826428757082665</v>
-      </c>
-      <c r="R25">
-        <v>88.43785881374399</v>
-      </c>
-      <c r="S25">
-        <v>0.005522357474434515</v>
-      </c>
-      <c r="T25">
-        <v>0.008140317317459123</v>
+        <v>0.02644089688580683</v>
       </c>
     </row>
   </sheetData>
